--- a/output/XP_30797425000134.xlsx
+++ b/output/XP_30797425000134.xlsx
@@ -713,10 +713,10 @@
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.20752499</v>
+        <v>0.2122759400000001</v>
       </c>
       <c r="C30">
-        <v>0.1052623080996569</v>
+        <v>0.109610910411122</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_30797425000134.xlsx
+++ b/output/XP_30797425000134.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP LONG BIASED DOMINUS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43312</v>
       </c>
@@ -411,312 +405,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43343</v>
       </c>
       <c r="B3">
         <v>-0.07923312000000005</v>
       </c>
-      <c r="C3">
-        <v>-0.07923312000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43373</v>
       </c>
       <c r="B4">
-        <v>-0.07502671999999999</v>
-      </c>
-      <c r="C4">
         <v>0.004568365882143821</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43404</v>
       </c>
       <c r="B5">
-        <v>0.05988108000000003</v>
-      </c>
-      <c r="C5">
         <v>0.1458504833782874</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43434</v>
       </c>
       <c r="B6">
-        <v>0.08204042</v>
-      </c>
-      <c r="C6">
         <v>0.02090738330756881</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43465</v>
       </c>
       <c r="B7">
-        <v>0.09497489000000003</v>
-      </c>
-      <c r="C7">
         <v>0.01195377710566481</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43496</v>
       </c>
       <c r="B8">
-        <v>0.1970751500000001</v>
-      </c>
-      <c r="C8">
         <v>0.09324438480959141</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43524</v>
       </c>
       <c r="B9">
-        <v>0.1783633600000001</v>
-      </c>
-      <c r="C9">
         <v>-0.01563125756975237</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43555</v>
       </c>
       <c r="B10">
-        <v>0.1505370800000001</v>
-      </c>
-      <c r="C10">
         <v>-0.02361434591788392</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43585</v>
       </c>
       <c r="B11">
-        <v>0.1757751299999999</v>
-      </c>
-      <c r="C11">
         <v>0.02193588580387162</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43616</v>
       </c>
       <c r="B12">
-        <v>0.2027562999999999</v>
-      </c>
-      <c r="C12">
         <v>0.02294755970897255</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43646</v>
       </c>
       <c r="B13">
-        <v>0.2504171900000001</v>
-      </c>
-      <c r="C13">
         <v>0.03962638981812039</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43677</v>
       </c>
       <c r="B14">
-        <v>0.26352248</v>
-      </c>
-      <c r="C14">
         <v>0.0104807340340547</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43708</v>
       </c>
       <c r="B15">
-        <v>0.2841668100000001</v>
-      </c>
-      <c r="C15">
         <v>0.01633871207420068</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43738</v>
       </c>
       <c r="B16">
-        <v>0.3056510400000001</v>
-      </c>
-      <c r="C16">
         <v>0.01673009287632965</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43769</v>
       </c>
       <c r="B17">
-        <v>0.32177817</v>
-      </c>
-      <c r="C17">
         <v>0.01235179194587843</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43799</v>
       </c>
       <c r="B18">
-        <v>0.3615626599999999</v>
-      </c>
-      <c r="C18">
         <v>0.030099218539825</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43830</v>
       </c>
       <c r="B19">
-        <v>0.4813120399999999</v>
-      </c>
-      <c r="C19">
         <v>0.08794995890971347</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43861</v>
       </c>
       <c r="B20">
-        <v>0.54089199</v>
-      </c>
-      <c r="C20">
         <v>0.04022106645403367</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43890</v>
       </c>
       <c r="B21">
-        <v>0.4382700900000001</v>
-      </c>
-      <c r="C21">
         <v>-0.06659902229746806</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43921</v>
       </c>
       <c r="B22">
-        <v>-0.1905084500000001</v>
-      </c>
-      <c r="C22">
         <v>-0.4371769561028694</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>-0.06206964999999998</v>
-      </c>
-      <c r="C23">
         <v>0.1586660169584229</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43982</v>
       </c>
       <c r="B24">
-        <v>0.02827153000000004</v>
-      </c>
-      <c r="C24">
         <v>0.09631971073331824</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44012</v>
       </c>
       <c r="B25">
-        <v>0.09840745000000006</v>
-      </c>
-      <c r="C25">
         <v>0.06820758715356057</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44043</v>
       </c>
       <c r="B26">
-        <v>0.2128632100000001</v>
-      </c>
-      <c r="C26">
         <v>0.1042015510728738</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44074</v>
       </c>
       <c r="B27">
-        <v>0.2115561500000001</v>
-      </c>
-      <c r="C27">
         <v>-0.00107766480937288</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44104</v>
       </c>
       <c r="B28">
-        <v>0.1191192299999999</v>
-      </c>
-      <c r="C28">
         <v>-0.07629602639547506</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44135</v>
       </c>
       <c r="B29">
-        <v>0.09252345000000006</v>
-      </c>
-      <c r="C29">
         <v>-0.0237649209191052</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44165</v>
       </c>
       <c r="B30">
-        <v>0.2122759400000001</v>
-      </c>
-      <c r="C30">
-        <v>0.109610910411122</v>
+        <v>0.07764183917516831</v>
       </c>
     </row>
   </sheetData>
